--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\web-development-class\source\semester_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C22791-8D4F-4CE5-A00E-7720493EBF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D38831E-8627-4E06-863D-BFB2B4E086FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Make sure you have read :ref:`assignment_01_basic_html` and are ready to work with your partner in class. Come with topic ideas.</t>
+  </si>
+  <si>
+    <t>Introduce Discord</t>
+  </si>
+  <si>
+    <t>`Discord How-To &lt;https://syllabi.readthedocs.io/en/latest/discord/index.html&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,371 +614,383 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>44070</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>44070</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <f>A2+7</f>
         <v>44075</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <f>A5+7</f>
-        <v>44077</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <f>A8+7</f>
-        <v>44082</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+        <f>A7+7</f>
+        <v>44077</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <f t="shared" ref="A13" si="0">A10+7</f>
-        <v>44084</v>
-      </c>
+      <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <f t="shared" ref="A14" si="1">A12+7</f>
-        <v>44089</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
+        <f>A10+7</f>
+        <v>44082</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
-        <f t="shared" ref="A15" si="2">A13+7</f>
-        <v>44091</v>
+        <f t="shared" ref="A15" si="0">A12+7</f>
+        <v>44084</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <f t="shared" ref="A16" si="1">A14+7</f>
+        <v>44089</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <f t="shared" ref="A17" si="3">A14+7</f>
-        <v>44096</v>
+        <f t="shared" ref="A17" si="2">A15+7</f>
+        <v>44091</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <f t="shared" ref="A18" si="4">A15+7</f>
-        <v>44098</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <f t="shared" ref="A19" si="5">A17+7</f>
-        <v>44103</v>
+        <f t="shared" ref="A19" si="3">A16+7</f>
+        <v>44096</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <f t="shared" ref="A20" si="6">A18+7</f>
-        <v>44105</v>
+        <f t="shared" ref="A20" si="4">A17+7</f>
+        <v>44098</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <f t="shared" ref="A21" si="7">A19+7</f>
-        <v>44110</v>
+        <f t="shared" ref="A21" si="5">A19+7</f>
+        <v>44103</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <f t="shared" ref="A22" si="8">A20+7</f>
-        <v>44112</v>
+        <f t="shared" ref="A22" si="6">A20+7</f>
+        <v>44105</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <f t="shared" ref="A23" si="9">A21+7</f>
-        <v>44117</v>
+        <f t="shared" ref="A23" si="7">A21+7</f>
+        <v>44110</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <f t="shared" ref="A24" si="10">A22+7</f>
-        <v>44119</v>
+        <f t="shared" ref="A24" si="8">A22+7</f>
+        <v>44112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <f t="shared" ref="A25" si="11">A23+7</f>
-        <v>44124</v>
+        <f t="shared" ref="A25" si="9">A23+7</f>
+        <v>44117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <f t="shared" ref="A26" si="12">A24+7</f>
-        <v>44126</v>
+        <f t="shared" ref="A26" si="10">A24+7</f>
+        <v>44119</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <f t="shared" ref="A27" si="13">A25+7</f>
-        <v>44131</v>
+        <f t="shared" ref="A27" si="11">A25+7</f>
+        <v>44124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <f t="shared" ref="A28" si="14">A26+7</f>
-        <v>44133</v>
+        <f t="shared" ref="A28" si="12">A26+7</f>
+        <v>44126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <f t="shared" ref="A29" si="15">A27+7</f>
-        <v>44138</v>
+        <f t="shared" ref="A29" si="13">A27+7</f>
+        <v>44131</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <f t="shared" ref="A30" si="16">A28+7</f>
-        <v>44140</v>
+        <f t="shared" ref="A30" si="14">A28+7</f>
+        <v>44133</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <f t="shared" ref="A31" si="17">A29+7</f>
-        <v>44145</v>
+        <f t="shared" ref="A31" si="15">A29+7</f>
+        <v>44138</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <f t="shared" ref="A32" si="18">A30+7</f>
-        <v>44147</v>
+        <f t="shared" ref="A32" si="16">A30+7</f>
+        <v>44140</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <f t="shared" ref="A33" si="19">A31+7</f>
-        <v>44152</v>
+        <f t="shared" ref="A33" si="17">A31+7</f>
+        <v>44145</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <f t="shared" ref="A34" si="20">A32+7</f>
+        <f t="shared" ref="A34" si="18">A32+7</f>
+        <v>44147</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <f t="shared" ref="A35" si="19">A33+7</f>
+        <v>44152</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <f t="shared" ref="A36" si="20">A34+7</f>
         <v>44154</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <f t="shared" ref="A35" si="21">A33+7</f>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <f t="shared" ref="A37" si="21">A35+7</f>
         <v>44159</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Text Editors" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" display="HTML Tutorial" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="Directory Tutorial" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B11" r:id="rId4" display="DVCS Concepts" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="Text Editors" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="HTML Tutorial" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B12" r:id="rId3" display="Directory Tutorial" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B13" r:id="rId4" display="DVCS Concepts" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D38831E-8627-4E06-863D-BFB2B4E086FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEE35B7-A7D2-48B1-83B5-1CE336F4C660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Collaboration, github issues, brainstorm assignment 5</t>
   </si>
   <si>
-    <t>Work on assignment 5</t>
-  </si>
-  <si>
-    <t>Amazon Web Services - get account. Planning period for Assignment 5 presentation</t>
-  </si>
-  <si>
     <t>Present Assignment 5, AWS tutorial</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Work on WordPress</t>
   </si>
   <si>
-    <t>Scalable Vector Graphics</t>
-  </si>
-  <si>
     <t>Google analytics / SVG work</t>
   </si>
   <si>
@@ -199,6 +190,24 @@
   </si>
   <si>
     <t>`Discord How-To &lt;https://syllabi.readthedocs.io/en/latest/discord/index.html&gt;`_</t>
+  </si>
+  <si>
+    <t>Work-day</t>
+  </si>
+  <si>
+    <t>Work on assignment 5, command-line tutorial</t>
+  </si>
+  <si>
+    <t>Work on assignment 5 (remote) -- get AWS account</t>
+  </si>
+  <si>
+    <t>:ref:`svg-intro` (in person)</t>
+  </si>
+  <si>
+    <t>:ref:`web_server_setup`</t>
+  </si>
+  <si>
+    <t>(in-person) :ref:`web-servers` - get account, work on assignment 5</t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -608,31 +617,31 @@
         <v>44068</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -640,25 +649,25 @@
         <v>44070</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -668,19 +677,19 @@
         <v>44075</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,14 +698,14 @@
         <v>44077</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5"/>
     </row>
@@ -706,7 +715,7 @@
         <v>44082</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -716,10 +725,10 @@
         <v>44084</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -731,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -746,7 +755,7 @@
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -759,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -779,8 +788,8 @@
         <f t="shared" ref="A21" si="5">A19+7</f>
         <v>44103</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -790,22 +799,19 @@
         <v>44105</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <f t="shared" ref="A23" si="7">A21+7</f>
         <v>44110</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -814,20 +820,16 @@
         <v>44112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" ref="A25" si="9">A23+7</f>
         <v>44117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -835,10 +837,9 @@
         <f t="shared" ref="A26" si="10">A24+7</f>
         <v>44119</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="5"/>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
@@ -846,10 +847,10 @@
         <v>44124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,7 +859,7 @@
         <v>44126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -868,10 +869,10 @@
         <v>44131</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,9 +880,6 @@
         <f t="shared" ref="A30" si="14">A28+7</f>
         <v>44133</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -890,9 +888,11 @@
         <v>44138</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
@@ -900,11 +900,9 @@
         <v>44140</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
@@ -912,9 +910,11 @@
         <v>44145</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
@@ -922,7 +922,7 @@
         <v>44147</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -932,58 +932,82 @@
         <v>44152</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" ref="A36" si="20">A34+7</f>
         <v>44154</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C36" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" ref="A37" si="21">A35+7</f>
         <v>44159</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEE35B7-A7D2-48B1-83B5-1CE336F4C660}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D339156-130A-47F5-8470-5353D692EE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Assignment 4 - Bootstrap</t>
   </si>
   <si>
-    <t>Assignment 5 - Final Project Version</t>
-  </si>
-  <si>
     <t>Assignment 6 - AWS Setup</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Assignment 10 - WordPress</t>
   </si>
   <si>
-    <t>Assignment 11 - SVG</t>
-  </si>
-  <si>
     <t>Assignment 12 - Static content website</t>
   </si>
   <si>
@@ -208,6 +202,9 @@
   </si>
   <si>
     <t>(in-person) :ref:`web-servers` - get account, work on assignment 5</t>
+  </si>
+  <si>
+    <t>Assignment 5 - Final Project Version, Assignment 11 - SVG</t>
   </si>
 </sst>
 </file>
@@ -591,7 +588,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -617,31 +614,31 @@
         <v>44068</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -649,25 +646,25 @@
         <v>44070</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -677,19 +674,19 @@
         <v>44075</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -698,14 +695,14 @@
         <v>44077</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5"/>
     </row>
@@ -715,7 +712,7 @@
         <v>44082</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -725,7 +722,7 @@
         <v>44084</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -755,7 +752,7 @@
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -789,7 +786,7 @@
         <v>44103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -808,10 +805,7 @@
         <v>44110</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -820,7 +814,7 @@
         <v>44112</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -829,7 +823,7 @@
         <v>44117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -838,6 +832,9 @@
         <v>44119</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -847,10 +844,7 @@
         <v>44124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -861,7 +855,6 @@
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
@@ -869,10 +862,10 @@
         <v>44131</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -880,7 +873,6 @@
         <f t="shared" ref="A30" si="14">A28+7</f>
         <v>44133</v>
       </c>
-      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
@@ -888,10 +880,10 @@
         <v>44138</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -913,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,16 +926,16 @@
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" ref="A36" si="20">A34+7</f>
         <v>44154</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
@@ -957,23 +949,23 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
@@ -988,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -996,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1006,7 +998,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\web-development-class\source\semester_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D339156-130A-47F5-8470-5353D692EE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF3436A-3A7A-4F12-9F0A-3289D84C0D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_schedule" sheetId="2" r:id="rId1"/>
+    <sheet name="Leftover" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,39 +37,18 @@
     <t>DVCS Branching, CSS assignment</t>
   </si>
   <si>
-    <t>CSS Layout, work on CSS assignment</t>
-  </si>
-  <si>
-    <t>Bootstrap tutorial</t>
-  </si>
-  <si>
-    <t>Bootstrap Grid</t>
-  </si>
-  <si>
     <t>Collaboration, github issues, brainstorm assignment 5</t>
   </si>
   <si>
-    <t>Present Assignment 5, AWS tutorial</t>
-  </si>
-  <si>
     <t>Explain DNS</t>
   </si>
   <si>
-    <t>Content management systems</t>
-  </si>
-  <si>
     <t>Work on WordPress</t>
   </si>
   <si>
-    <t>Google analytics / SVG work</t>
-  </si>
-  <si>
     <t>Static Content Generators / Sphinx / RST</t>
   </si>
   <si>
-    <t>Get started on assignment 12</t>
-  </si>
-  <si>
     <t>Work on Assignment 12</t>
   </si>
   <si>
@@ -81,24 +61,9 @@
     <t>Present projects</t>
   </si>
   <si>
-    <t>Assignment 1 - HTML</t>
-  </si>
-  <si>
-    <t>Assignment 2 - DVCS</t>
-  </si>
-  <si>
-    <t>Assignment 3 - CSS</t>
-  </si>
-  <si>
-    <t>Assignment 4 - Bootstrap</t>
-  </si>
-  <si>
     <t>Assignment 6 - AWS Setup</t>
   </si>
   <si>
-    <t>Assignment 7 - Using PHP "include"</t>
-  </si>
-  <si>
     <t>Assignment 8 - DNS and Web Site performance</t>
   </si>
   <si>
@@ -108,27 +73,15 @@
     <t>Assignment 10 - WordPress</t>
   </si>
   <si>
-    <t>Assignment 12 - Static content website</t>
-  </si>
-  <si>
-    <t>Collaborative Leadership Reflection</t>
-  </si>
-  <si>
     <t>Syllabus</t>
   </si>
   <si>
     <t>Keep working on git, assign CSS tutorial</t>
   </si>
   <si>
-    <t>CSS Menu: https://www.w3schools.com/css/css_navbar.asp</t>
-  </si>
-  <si>
     <t>Command line tutorial / AWS setup</t>
   </si>
   <si>
-    <t>AWS setup / Application servers</t>
-  </si>
-  <si>
     <t>Talk about application servers</t>
   </si>
   <si>
@@ -147,9 +100,6 @@
     <t>:ref:`assignment_01_basic_html`</t>
   </si>
   <si>
-    <t>Meet via ZOOM ONLY</t>
-  </si>
-  <si>
     <t>Introduce :ref:`assignment_01_basic_html`</t>
   </si>
   <si>
@@ -162,30 +112,12 @@
     <t>:ref:`dvcs_tutorial`</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Optionally, purchase and install `CSS HTML Validator &lt;https://www.htmlvalidator.com/buy/academic/&gt;`_.</t>
-  </si>
-  <si>
-    <t>After working with your partner in class today, continue work on your :ref:`assignment_01_basic_html` pages on your own.</t>
-  </si>
-  <si>
     <t>Work due</t>
   </si>
   <si>
     <t>Have Sublime on your own computer by class</t>
   </si>
   <si>
-    <t>Make sure you have read :ref:`assignment_01_basic_html` and are ready to work with your partner in class. Come with topic ideas.</t>
-  </si>
-  <si>
-    <t>Introduce Discord</t>
-  </si>
-  <si>
-    <t>`Discord How-To &lt;https://syllabi.readthedocs.io/en/latest/discord/index.html&gt;`_</t>
-  </si>
-  <si>
     <t>Work-day</t>
   </si>
   <si>
@@ -201,10 +133,79 @@
     <t>:ref:`web_server_setup`</t>
   </si>
   <si>
-    <t>(in-person) :ref:`web-servers` - get account, work on assignment 5</t>
-  </si>
-  <si>
-    <t>Assignment 5 - Final Project Version, Assignment 11 - SVG</t>
+    <t>Fall Break</t>
+  </si>
+  <si>
+    <t>Thanksgiving Break</t>
+  </si>
+  <si>
+    <t>Last day of class</t>
+  </si>
+  <si>
+    <t>8 am final - present projects</t>
+  </si>
+  <si>
+    <t>Quiz 1 - HTML</t>
+  </si>
+  <si>
+    <t>Quiz 2 - DVCS</t>
+  </si>
+  <si>
+    <t>Quiz 3 - CSS</t>
+  </si>
+  <si>
+    <t>Quiz 5 - Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Quiz 6 - DNS and Cloud Hosting Quiz</t>
+  </si>
+  <si>
+    <t>Assignment 11 - Static content website</t>
+  </si>
+  <si>
+    <t>Assignment 12 - Collaborative Leadership Reflection</t>
+  </si>
+  <si>
+    <t>`CSS Menu &lt;https://www.w3schools.com/css/css_navbar.asp&gt;`_</t>
+  </si>
+  <si>
+    <t>:ref:`web-servers` - :ref:`aws_setup`</t>
+  </si>
+  <si>
+    <t>:ref:`cms` - :ref:`InstallWordpress`</t>
+  </si>
+  <si>
+    <t>CSS Layout, work on :ref:`css_assignment`</t>
+  </si>
+  <si>
+    <t>:ref:`bootstrap-tutorial`</t>
+  </si>
+  <si>
+    <t>:ref:`bootstrap-grid-tutorial`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_dvcs`</t>
+  </si>
+  <si>
+    <t>:ref:`css_assignment`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_bootstrap`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_finalize_site`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_svg`</t>
+  </si>
+  <si>
+    <t>(in-person) :ref:`web-servers` - get account, work on :ref:assignment_finalize_site``</t>
+  </si>
+  <si>
+    <t>Present :ref:`assignment_finalize_site`, AWS tutorial</t>
+  </si>
+  <si>
+    <t>Google analytics</t>
   </si>
 </sst>
 </file>
@@ -585,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,409 +607,435 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
-        <v>44068</v>
+        <v>44439</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6">
+        <v>44441</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>44070</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
+      <c r="A8" s="6">
+        <f>A2+7</f>
+        <v>44446</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <f>A5+7</f>
+        <v>44448</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <f>A2+7</f>
-        <v>44075</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="6">
+        <f>A8+7</f>
+        <v>44453</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
-        <f>A7+7</f>
-        <v>44077</v>
+        <f t="shared" ref="A12" si="0">A9+7</f>
+        <v>44455</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6">
+        <f t="shared" ref="A13" si="1">A11+7</f>
+        <v>44460</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <f>A10+7</f>
-        <v>44082</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <f t="shared" ref="A15" si="0">A12+7</f>
-        <v>44084</v>
-      </c>
+        <f t="shared" ref="A14" si="2">A12+7</f>
+        <v>44462</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
-        <f t="shared" ref="A16" si="1">A14+7</f>
-        <v>44089</v>
+        <f t="shared" ref="A16" si="3">A13+7</f>
+        <v>44467</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <f t="shared" ref="A17" si="2">A15+7</f>
-        <v>44091</v>
+        <f t="shared" ref="A17" si="4">A14+7</f>
+        <v>44469</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <f t="shared" ref="A18" si="5">A16+7</f>
+        <v>44474</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
-        <f t="shared" ref="A19" si="3">A16+7</f>
-        <v>44096</v>
+        <f t="shared" ref="A19" si="6">A17+7</f>
+        <v>44476</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <f t="shared" ref="A20" si="4">A17+7</f>
-        <v>44098</v>
+        <f t="shared" ref="A20" si="7">A18+7</f>
+        <v>44481</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
-        <f t="shared" ref="A21" si="5">A19+7</f>
-        <v>44103</v>
+        <f t="shared" ref="A21" si="8">A19+7</f>
+        <v>44483</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <f t="shared" ref="A22" si="6">A20+7</f>
-        <v>44105</v>
+        <f t="shared" ref="A22" si="9">A20+7</f>
+        <v>44488</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
-        <f t="shared" ref="A23" si="7">A21+7</f>
-        <v>44110</v>
+        <f t="shared" ref="A23" si="10">A21+7</f>
+        <v>44490</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
-        <f t="shared" ref="A24" si="8">A22+7</f>
-        <v>44112</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" ref="A24" si="11">A22+7</f>
+        <v>44495</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <f t="shared" ref="A25" si="9">A23+7</f>
-        <v>44117</v>
+        <f t="shared" ref="A25" si="12">A23+7</f>
+        <v>44497</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <f t="shared" ref="A26" si="10">A24+7</f>
-        <v>44119</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
+        <f t="shared" ref="A26" si="13">A24+7</f>
+        <v>44502</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <f t="shared" ref="A27" si="11">A25+7</f>
-        <v>44124</v>
+        <f t="shared" ref="A27" si="14">A25+7</f>
+        <v>44504</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <f t="shared" ref="A28" si="12">A26+7</f>
-        <v>44126</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
+        <f t="shared" ref="A28" si="15">A26+7</f>
+        <v>44509</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <f t="shared" ref="A29" si="13">A27+7</f>
-        <v>44131</v>
+        <f t="shared" ref="A29" si="16">A27+7</f>
+        <v>44511</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <f t="shared" ref="A30" si="14">A28+7</f>
-        <v>44133</v>
+        <f t="shared" ref="A30" si="17">A28+7</f>
+        <v>44516</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <f t="shared" ref="A31" si="15">A29+7</f>
-        <v>44138</v>
+        <f t="shared" ref="A31" si="18">A29+7</f>
+        <v>44518</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <f t="shared" ref="A32" si="16">A30+7</f>
-        <v>44140</v>
+        <f t="shared" ref="A32" si="19">A30+7</f>
+        <v>44523</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <f t="shared" ref="A33" si="17">A31+7</f>
-        <v>44145</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
+        <f t="shared" ref="A33:A37" si="20">A31+7</f>
+        <v>44525</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <f t="shared" ref="A34" si="18">A32+7</f>
-        <v>44147</v>
+        <f t="shared" ref="A34:A36" si="21">A32+7</f>
+        <v>44530</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <f t="shared" ref="A35" si="19">A33+7</f>
-        <v>44152</v>
+        <f t="shared" si="20"/>
+        <v>44532</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
-        <f t="shared" ref="A36" si="20">A34+7</f>
-        <v>44154</v>
+        <f t="shared" si="21"/>
+        <v>44537</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <f t="shared" ref="A37" si="21">A35+7</f>
-        <v>44159</v>
+        <f t="shared" si="20"/>
+        <v>44539</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>44544</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-      <c r="B41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="Text Editors" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" display="HTML Tutorial" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B12" r:id="rId3" display="Directory Tutorial" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId4" display="DVCS Concepts" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B3" r:id="rId1" display="Text Editors" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" display="HTML Tutorial" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" display="Directory Tutorial" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId4" display="DVCS Concepts" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341813F0-E0F4-4D60-A4E5-5D3666612128}">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF3436A-3A7A-4F12-9F0A-3289D84C0D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1EC61-6DA2-40CA-B655-76951646D2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,24 +34,9 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>DVCS Branching, CSS assignment</t>
-  </si>
-  <si>
-    <t>Collaboration, github issues, brainstorm assignment 5</t>
-  </si>
-  <si>
     <t>Explain DNS</t>
   </si>
   <si>
-    <t>Work on WordPress</t>
-  </si>
-  <si>
-    <t>Static Content Generators / Sphinx / RST</t>
-  </si>
-  <si>
-    <t>Work on Assignment 12</t>
-  </si>
-  <si>
     <t>Videos on Advanced DNS, Load Balancing,CDN. Work on S3</t>
   </si>
   <si>
@@ -61,18 +46,6 @@
     <t>Present projects</t>
   </si>
   <si>
-    <t>Assignment 6 - AWS Setup</t>
-  </si>
-  <si>
-    <t>Assignment 8 - DNS and Web Site performance</t>
-  </si>
-  <si>
-    <t>Assignment 9 - WordPress Install</t>
-  </si>
-  <si>
-    <t>Assignment 10 - WordPress</t>
-  </si>
-  <si>
     <t>Syllabus</t>
   </si>
   <si>
@@ -82,9 +55,6 @@
     <t>Command line tutorial / AWS setup</t>
   </si>
   <si>
-    <t>Talk about application servers</t>
-  </si>
-  <si>
     <t>:ref:`text_editors`</t>
   </si>
   <si>
@@ -121,12 +91,6 @@
     <t>Work-day</t>
   </si>
   <si>
-    <t>Work on assignment 5, command-line tutorial</t>
-  </si>
-  <si>
-    <t>Work on assignment 5 (remote) -- get AWS account</t>
-  </si>
-  <si>
     <t>:ref:`svg-intro` (in person)</t>
   </si>
   <si>
@@ -160,12 +124,6 @@
     <t>Quiz 6 - DNS and Cloud Hosting Quiz</t>
   </si>
   <si>
-    <t>Assignment 11 - Static content website</t>
-  </si>
-  <si>
-    <t>Assignment 12 - Collaborative Leadership Reflection</t>
-  </si>
-  <si>
     <t>`CSS Menu &lt;https://www.w3schools.com/css/css_navbar.asp&gt;`_</t>
   </si>
   <si>
@@ -199,13 +157,55 @@
     <t>:ref:`assignment_svg`</t>
   </si>
   <si>
-    <t>(in-person) :ref:`web-servers` - get account, work on :ref:assignment_finalize_site``</t>
-  </si>
-  <si>
-    <t>Present :ref:`assignment_finalize_site`, AWS tutorial</t>
-  </si>
-  <si>
     <t>Google analytics</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_aws_deploy`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_dns_performance`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_install_wordpress`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_wordpress`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_static`</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_reflection`</t>
+  </si>
+  <si>
+    <t>(in-person) :ref:`web-servers` - get account, work on :ref:`assignment_finalize_site`</t>
+  </si>
+  <si>
+    <t>Work on assignment 5, do :ref:`command_line_tutorial`</t>
+  </si>
+  <si>
+    <t>Show how to use github issues, brainstorm introduce and start :ref:`assignment_finalize_site`</t>
+  </si>
+  <si>
+    <t>Work on :ref:`assignment_finalize_site` -- get AWS account</t>
+  </si>
+  <si>
+    <t>Work on :ref:`assignment_wordpress`</t>
+  </si>
+  <si>
+    <t>Cover :ref:`static_content_generators`, :ref:`sphinx_tutorial`</t>
+  </si>
+  <si>
+    <t>Work on :ref:`assignment_reflection`</t>
+  </si>
+  <si>
+    <t>Talk about :ref:`application_servers`</t>
+  </si>
+  <si>
+    <t>:ref:`branching-tutorial`, introduce and start :ref:`css_assignment`</t>
+  </si>
+  <si>
+    <t>Present :ref:`assignment_finalize_site`, :ref:`aws_setup`</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -615,19 +615,19 @@
         <v>44439</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -635,23 +635,23 @@
         <v>44441</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -661,10 +661,10 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -673,14 +673,14 @@
         <v>44448</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -690,10 +690,10 @@
         <v>44453</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,22 +702,22 @@
         <v>44455</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" ref="A13" si="1">A11+7</f>
         <v>44460</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -726,16 +726,16 @@
         <v>44462</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,10 +744,10 @@
         <v>44467</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>44469</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -765,28 +765,28 @@
         <v>44474</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f t="shared" ref="A19" si="6">A17+7</f>
         <v>44476</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <f t="shared" ref="A20" si="7">A18+7</f>
         <v>44481</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -795,7 +795,7 @@
         <v>44483</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -804,10 +804,10 @@
         <v>44488</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -816,10 +816,10 @@
         <v>44490</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -828,7 +828,7 @@
         <v>44495</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -837,7 +837,7 @@
         <v>44497</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,10 +846,10 @@
         <v>44502</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>44504</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -867,7 +867,7 @@
         <v>44509</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -876,7 +876,7 @@
         <v>44511</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5"/>
     </row>
@@ -886,10 +886,10 @@
         <v>44516</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -898,10 +898,10 @@
         <v>44518</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -910,10 +910,10 @@
         <v>44523</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>44525</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -932,7 +932,7 @@
         <v>44530</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -942,19 +942,19 @@
         <v>44532</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <f t="shared" si="21"/>
         <v>44537</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -964,14 +964,14 @@
         <v>44539</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -979,15 +979,15 @@
         <v>44544</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1017,22 +1017,22 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1EC61-6DA2-40CA-B655-76951646D2BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3891B2-8106-48C3-9EEE-A8DF18BAEE44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -109,9 +109,6 @@
     <t>8 am final - present projects</t>
   </si>
   <si>
-    <t>Quiz 1 - HTML</t>
-  </si>
-  <si>
     <t>Quiz 2 - DVCS</t>
   </si>
   <si>
@@ -206,6 +203,15 @@
   </si>
   <si>
     <t>Present :ref:`assignment_finalize_site`, :ref:`aws_setup`</t>
+  </si>
+  <si>
+    <t>Quiz 1 - HTML @ 9:40 am</t>
+  </si>
+  <si>
+    <t>Work on :ref:`assignment_01_basic_html` in class</t>
+  </si>
+  <si>
+    <t>Before class read through `W3School HTML tutorial &lt;https://www.w3schools.com/html/&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,341 +667,347 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="6"/>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <f>A5+7</f>
         <v>44448</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <f>A8+7</f>
         <v>44453</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <f t="shared" ref="A13" si="0">A10+7</f>
+        <v>44455</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <f t="shared" ref="A14" si="1">A12+7</f>
+        <v>44460</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <f t="shared" ref="A15" si="2">A13+7</f>
+        <v>44462</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <f t="shared" ref="A12" si="0">A9+7</f>
-        <v>44455</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <f t="shared" ref="A13" si="1">A11+7</f>
-        <v>44460</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <f t="shared" ref="A14" si="2">A12+7</f>
-        <v>44462</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <f t="shared" ref="A16" si="3">A13+7</f>
-        <v>44467</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
-        <f t="shared" ref="A17" si="4">A14+7</f>
-        <v>44469</v>
+        <f t="shared" ref="A17" si="3">A14+7</f>
+        <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
-        <f t="shared" ref="A18" si="5">A16+7</f>
+        <f t="shared" ref="A18" si="4">A15+7</f>
+        <v>44469</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <f t="shared" ref="A19" si="5">A17+7</f>
         <v>44474</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <f t="shared" ref="A19" si="6">A17+7</f>
-        <v>44476</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
-        <f t="shared" ref="A20" si="7">A18+7</f>
+        <f t="shared" ref="A20" si="6">A18+7</f>
+        <v>44476</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <f t="shared" ref="A21" si="7">A19+7</f>
         <v>44481</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <f t="shared" ref="A21" si="8">A19+7</f>
-        <v>44483</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
-        <f t="shared" ref="A22" si="9">A20+7</f>
+        <f t="shared" ref="A22" si="8">A20+7</f>
+        <v>44483</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <f t="shared" ref="A23" si="9">A21+7</f>
         <v>44488</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <f t="shared" ref="A24" si="10">A22+7</f>
+        <v>44490</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <f t="shared" ref="A23" si="10">A21+7</f>
-        <v>44490</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
-        <f t="shared" ref="A24" si="11">A22+7</f>
-        <v>44495</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
-        <f t="shared" ref="A25" si="12">A23+7</f>
-        <v>44497</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>33</v>
+        <f t="shared" ref="A25" si="11">A23+7</f>
+        <v>44495</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
-        <f t="shared" ref="A26" si="13">A24+7</f>
-        <v>44502</v>
+        <f t="shared" ref="A26" si="12">A24+7</f>
+        <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
-        <f t="shared" ref="A27" si="14">A25+7</f>
-        <v>44504</v>
+        <f t="shared" ref="A27" si="13">A25+7</f>
+        <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
-        <f t="shared" ref="A28" si="15">A26+7</f>
-        <v>44509</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
+        <f t="shared" ref="A28" si="14">A26+7</f>
+        <v>44504</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
-        <f t="shared" ref="A29" si="16">A27+7</f>
-        <v>44511</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="5"/>
+        <f t="shared" ref="A29" si="15">A27+7</f>
+        <v>44509</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
-        <f t="shared" ref="A30" si="17">A28+7</f>
-        <v>44516</v>
+        <f t="shared" ref="A30" si="16">A28+7</f>
+        <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
-        <f t="shared" ref="A31" si="18">A29+7</f>
-        <v>44518</v>
+        <f t="shared" ref="A31" si="17">A29+7</f>
+        <v>44516</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <f t="shared" ref="A32" si="19">A30+7</f>
-        <v>44523</v>
+        <f t="shared" ref="A32" si="18">A30+7</f>
+        <v>44518</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <f t="shared" ref="A33:A37" si="20">A31+7</f>
-        <v>44525</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5"/>
+        <f t="shared" ref="A33" si="19">A31+7</f>
+        <v>44523</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <f t="shared" ref="A34:A36" si="21">A32+7</f>
-        <v>44530</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>54</v>
+        <f t="shared" ref="A34:A38" si="20">A32+7</f>
+        <v>44525</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
+        <f t="shared" ref="A35:A37" si="21">A33+7</f>
+        <v>44530</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <f t="shared" si="20"/>
         <v>44532</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
         <f t="shared" si="21"/>
         <v>44537</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+      <c r="B37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <f t="shared" si="20"/>
         <v>44539</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>44544</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C40" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="Text Editors" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B5" r:id="rId2" display="HTML Tutorial" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" display="Directory Tutorial" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B10" r:id="rId4" display="DVCS Concepts" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="Directory Tutorial" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="DVCS Concepts" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3891B2-8106-48C3-9EEE-A8DF18BAEE44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A257A1D-3F44-4D6F-887B-54A0928F1178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Work due</t>
   </si>
   <si>
-    <t>Have Sublime on your own computer by class</t>
-  </si>
-  <si>
     <t>Work-day</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>Before class read through `W3School HTML tutorial &lt;https://www.w3schools.com/html/&gt;`_</t>
+  </si>
+  <si>
+    <t>If you are using your own computer, install `Sublime &lt;https://www.sublimetext.com/&gt;`_ before class.</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,16 +667,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -726,10 +726,10 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,16 +738,16 @@
         <v>44462</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,10 +756,10 @@
         <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -768,7 +768,7 @@
         <v>44469</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,10 +777,10 @@
         <v>44474</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -789,7 +789,7 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
         <v>44483</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -816,10 +816,10 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -828,10 +828,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,10 +858,10 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>44509</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -910,10 +910,10 @@
         <v>44518</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,10 +922,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>44525</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -944,7 +944,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -954,10 +954,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
         <v>44537</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -976,14 +976,14 @@
         <v>44539</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,15 +991,15 @@
         <v>44544</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A257A1D-3F44-4D6F-887B-54A0928F1178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFBDD5-D13C-46EA-8FE7-6545711BABC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Syllabus</t>
   </si>
   <si>
-    <t>Keep working on git, assign CSS tutorial</t>
-  </si>
-  <si>
     <t>Command line tutorial / AWS setup</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>If you are using your own computer, install `Sublime &lt;https://www.sublimetext.com/&gt;`_ before class.</t>
+  </si>
+  <si>
+    <t>Keep working on git, Cover :ref:`cascading_style_sheets_about` and start :ref:`css_tutorial`</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -627,13 +627,13 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -641,23 +641,23 @@
         <v>44441</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -667,16 +667,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -685,14 +685,14 @@
         <v>44448</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -702,22 +702,22 @@
         <v>44453</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <f t="shared" ref="A13" si="0">A10+7</f>
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -726,10 +726,10 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,16 +738,16 @@
         <v>44462</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,10 +756,10 @@
         <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -768,7 +768,7 @@
         <v>44469</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,10 +777,10 @@
         <v>44474</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -789,7 +789,7 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
         <v>44483</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -816,10 +816,10 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -828,10 +828,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,10 +858,10 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>44509</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -910,10 +910,10 @@
         <v>44518</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,10 +922,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>44525</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -944,7 +944,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -954,10 +954,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
         <v>44537</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -976,14 +976,14 @@
         <v>44539</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,15 +991,15 @@
         <v>44544</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFBDD5-D13C-46EA-8FE7-6545711BABC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC65F6-C670-442E-9073-D89E58E9AD49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,12 +109,6 @@
     <t>Quiz 3 - CSS</t>
   </si>
   <si>
-    <t>Quiz 5 - Amazon Web Services</t>
-  </si>
-  <si>
-    <t>Quiz 6 - DNS and Cloud Hosting Quiz</t>
-  </si>
-  <si>
     <t>`CSS Menu &lt;https://www.w3schools.com/css/css_navbar.asp&gt;`_</t>
   </si>
   <si>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>Keep working on git, Cover :ref:`cascading_style_sheets_about` and start :ref:`css_tutorial`</t>
+  </si>
+  <si>
+    <t>Quiz 4 - Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Quiz 5 - DNS and Cloud Hosting Quiz</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,16 +667,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -714,7 +714,7 @@
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -726,10 +726,10 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,13 +738,13 @@
         <v>44462</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -756,10 +756,10 @@
         <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -768,7 +768,7 @@
         <v>44469</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -780,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -789,7 +789,7 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -828,10 +828,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,10 +858,10 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>44509</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -910,10 +910,10 @@
         <v>44518</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,10 +922,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -944,7 +944,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -954,10 +954,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
         <v>44537</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -983,7 +983,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -994,12 +994,12 @@
         <v>24</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC65F6-C670-442E-9073-D89E58E9AD49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F01EC-FE85-462D-AD4D-79A76373B3DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,9 +779,6 @@
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
@@ -790,6 +787,9 @@
       </c>
       <c r="B20" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F01EC-FE85-462D-AD4D-79A76373B3DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCE10E6-37CA-4544-94EB-9CEDA0600313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Work-day</t>
   </si>
   <si>
-    <t>:ref:`svg-intro` (in person)</t>
-  </si>
-  <si>
     <t>:ref:`web_server_setup`</t>
   </si>
   <si>
@@ -163,12 +160,6 @@
     <t>:ref:`assignment_reflection`</t>
   </si>
   <si>
-    <t>(in-person) :ref:`web-servers` - get account, work on :ref:`assignment_finalize_site`</t>
-  </si>
-  <si>
-    <t>Work on assignment 5, do :ref:`command_line_tutorial`</t>
-  </si>
-  <si>
     <t>Show how to use github issues, brainstorm introduce and start :ref:`assignment_finalize_site`</t>
   </si>
   <si>
@@ -212,6 +203,18 @@
   </si>
   <si>
     <t>Quiz 5 - DNS and Cloud Hosting Quiz</t>
+  </si>
+  <si>
+    <t>Do :ref:`command_line_tutorial`</t>
+  </si>
+  <si>
+    <t>:ref:`svg-intro`</t>
+  </si>
+  <si>
+    <t>Talk about :ref:`web-servers` - get account. Work on :ref:`assignment_svg`</t>
+  </si>
+  <si>
+    <t>No class</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,16 +670,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -705,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -714,7 +717,7 @@
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -726,10 +729,10 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,16 +741,16 @@
         <v>44462</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,10 +759,10 @@
         <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -768,7 +771,7 @@
         <v>44469</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -786,10 +789,10 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -798,7 +801,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -807,7 +810,7 @@
         <v>44483</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -816,10 +819,10 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -828,10 +831,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +843,7 @@
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -849,7 +852,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,10 +861,10 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +873,7 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -878,8 +881,11 @@
         <f t="shared" ref="A29" si="15">A27+7</f>
         <v>44509</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +894,7 @@
         <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -898,10 +904,10 @@
         <v>44516</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -909,11 +915,11 @@
         <f t="shared" ref="A32" si="18">A30+7</f>
         <v>44518</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -922,10 +928,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,7 +940,7 @@
         <v>44525</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -944,7 +950,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -954,10 +960,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -966,7 +972,7 @@
         <v>44537</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -976,14 +982,14 @@
         <v>44539</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,15 +997,15 @@
         <v>44544</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCE10E6-37CA-4544-94EB-9CEDA0600313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A766696-98BD-41B7-8B32-7E3262F4D4B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>:ref:`assignment_finalize_site`</t>
   </si>
   <si>
-    <t>:ref:`assignment_svg`</t>
-  </si>
-  <si>
     <t>Google analytics</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>No class</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_svg` on Friday 5 pm</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -670,16 +670,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -717,7 +717,7 @@
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -729,7 +729,7 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>32</v>
@@ -789,7 +789,7 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>34</v>
@@ -801,7 +801,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -819,7 +819,7 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -831,10 +831,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -861,10 +861,10 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -873,7 +873,7 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -882,10 +882,10 @@
         <v>44509</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -916,10 +916,10 @@
         <v>44518</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -928,10 +928,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -960,10 +960,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -972,7 +972,7 @@
         <v>44537</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -989,7 +989,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1000,12 +1000,12 @@
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A766696-98BD-41B7-8B32-7E3262F4D4B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD77DE-C0DC-4770-811C-2412BDC0F269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Work-day</t>
   </si>
   <si>
-    <t>:ref:`web_server_setup`</t>
-  </si>
-  <si>
     <t>Fall Break</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>`CSS Menu &lt;https://www.w3schools.com/css/css_navbar.asp&gt;`_</t>
   </si>
   <si>
-    <t>:ref:`web-servers` - :ref:`aws_setup`</t>
-  </si>
-  <si>
     <t>:ref:`cms` - :ref:`InstallWordpress`</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>:ref:`branching-tutorial`, introduce and start :ref:`css_assignment`</t>
   </si>
   <si>
-    <t>Present :ref:`assignment_finalize_site`, :ref:`aws_setup`</t>
-  </si>
-  <si>
     <t>Quiz 1 - HTML @ 9:40 am</t>
   </si>
   <si>
@@ -215,6 +206,12 @@
   </si>
   <si>
     <t>:ref:`assignment_svg` on Friday 5 pm</t>
+  </si>
+  <si>
+    <t>Talk about :ref:`web-servers`. Do :ref:`web_server_setup` demo.</t>
+  </si>
+  <si>
+    <t>Review :ref:`web-servers`. :ref:`aws_setup`</t>
   </si>
 </sst>
 </file>
@@ -598,13 +595,13 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -670,16 +667,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -708,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -717,7 +714,7 @@
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -729,10 +726,10 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -741,16 +738,16 @@
         <v>44462</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -759,10 +756,10 @@
         <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,7 +768,7 @@
         <v>44469</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -789,10 +786,10 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -801,7 +798,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,7 +807,7 @@
         <v>44483</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -819,10 +816,10 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -831,19 +828,19 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <f t="shared" ref="A25" si="11">A23+7</f>
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -852,7 +849,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -861,10 +858,10 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -873,7 +870,7 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -881,11 +878,8 @@
         <f t="shared" ref="A29" si="15">A27+7</f>
         <v>44509</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -904,10 +898,10 @@
         <v>44516</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -916,10 +910,10 @@
         <v>44518</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -928,10 +922,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -940,7 +934,7 @@
         <v>44525</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -950,7 +944,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -960,10 +954,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -972,7 +966,7 @@
         <v>44537</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -982,14 +976,14 @@
         <v>44539</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,15 +991,15 @@
         <v>44544</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD77DE-C0DC-4770-811C-2412BDC0F269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A77FDA-FAA1-47C6-81D4-863E452652F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>Quiz 5 - DNS and Cloud Hosting Quiz</t>
   </si>
   <si>
-    <t>Do :ref:`command_line_tutorial`</t>
-  </si>
-  <si>
     <t>:ref:`svg-intro`</t>
   </si>
   <si>
@@ -211,7 +208,10 @@
     <t>Talk about :ref:`web-servers`. Do :ref:`web_server_setup` demo.</t>
   </si>
   <si>
-    <t>Review :ref:`web-servers`. :ref:`aws_setup`</t>
+    <t>Review :ref:`web-servers`. :ref:`aws_setup`, work on :ref:`command_line_tutorial`</t>
+  </si>
+  <si>
+    <t>Review/finish :ref:`command_line_tutorial`. Do :ref:`assignment_aws_deploy` in class.</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +816,7 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -828,10 +828,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -840,28 +840,25 @@
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <f t="shared" ref="A26" si="12">A24+7</f>
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <f t="shared" ref="A27" si="13">A25+7</f>
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -872,12 +869,18 @@
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" ref="A29" si="15">A27+7</f>
         <v>44509</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -888,21 +891,17 @@
         <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <f t="shared" ref="A31" si="17">A29+7</f>
         <v>44516</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
@@ -910,7 +909,7 @@
         <v>44518</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -960,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <f t="shared" si="21"/>
         <v>44537</v>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A77FDA-FAA1-47C6-81D4-863E452652F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8783019-22E5-484A-9D96-E8D2AA242FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Explain DNS</t>
-  </si>
-  <si>
     <t>Videos on Advanced DNS, Load Balancing,CDN. Work on S3</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Google analytics</t>
   </si>
   <si>
-    <t>:ref:`assignment_aws_deploy`</t>
-  </si>
-  <si>
     <t>:ref:`assignment_dns_performance`</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>Work on :ref:`assignment_reflection`</t>
   </si>
   <si>
-    <t>Talk about :ref:`application_servers`</t>
-  </si>
-  <si>
     <t>:ref:`branching-tutorial`, introduce and start :ref:`css_assignment`</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Keep working on git, Cover :ref:`cascading_style_sheets_about` and start :ref:`css_tutorial`</t>
   </si>
   <si>
-    <t>Quiz 4 - Amazon Web Services</t>
-  </si>
-  <si>
     <t>Quiz 5 - DNS and Cloud Hosting Quiz</t>
   </si>
   <si>
@@ -212,6 +200,18 @@
   </si>
   <si>
     <t>Review/finish :ref:`command_line_tutorial`. Do :ref:`assignment_aws_deploy` in class.</t>
+  </si>
+  <si>
+    <t>:ref:`assignment_aws_deploy` / Quiz 4 -Command Line</t>
+  </si>
+  <si>
+    <t>Quiz 5 AWS</t>
+  </si>
+  <si>
+    <t>Talk about :ref:`application_servers`. Explain DNS.</t>
+  </si>
+  <si>
+    <t>Talk about web site performance. Start on :ref:`InstallWordpress`.</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -621,19 +621,19 @@
         <v>44439</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -641,23 +641,23 @@
         <v>44441</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -667,16 +667,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -685,14 +685,14 @@
         <v>44448</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -702,10 +702,10 @@
         <v>44453</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -714,10 +714,10 @@
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -726,10 +726,10 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,16 +738,16 @@
         <v>44462</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,10 +756,10 @@
         <v>44467</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -768,7 +768,7 @@
         <v>44469</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,7 +777,7 @@
         <v>44474</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -786,10 +786,10 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -807,7 +807,7 @@
         <v>44483</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -816,10 +816,10 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -828,10 +828,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -867,22 +867,22 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <f t="shared" ref="A29" si="15">A27+7</f>
         <v>44509</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -891,10 +891,10 @@
         <v>44511</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -902,6 +902,9 @@
         <f t="shared" ref="A31" si="17">A29+7</f>
         <v>44516</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
@@ -909,10 +912,10 @@
         <v>44518</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -921,10 +924,10 @@
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -933,7 +936,7 @@
         <v>44525</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -943,7 +946,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -953,10 +956,10 @@
         <v>44532</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -964,9 +967,6 @@
         <f t="shared" si="21"/>
         <v>44537</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -975,14 +975,14 @@
         <v>44539</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -990,15 +990,15 @@
         <v>44544</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1028,22 +1028,22 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/source/semester_1/schedule.xlsx
+++ b/source/semester_1/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.craven\Desktop\Projects\web-development-class\source\semester_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8783019-22E5-484A-9D96-E8D2AA242FA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD5E35-C482-4620-BDD3-EB922DE8B57D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -127,9 +127,6 @@
     <t>:ref:`assignment_finalize_site`</t>
   </si>
   <si>
-    <t>Google analytics</t>
-  </si>
-  <si>
     <t>:ref:`assignment_dns_performance`</t>
   </si>
   <si>
@@ -212,6 +209,15 @@
   </si>
   <si>
     <t>Talk about web site performance. Start on :ref:`InstallWordpress`.</t>
+  </si>
+  <si>
+    <t>Talk about Google Analytics. Work on :ref:`assignment_wordpress`</t>
+  </si>
+  <si>
+    <t>Work on :ref:`assignment_static`</t>
+  </si>
+  <si>
+    <t>Show how to host with S3 and CDN</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,16 +673,16 @@
         <v>44446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -714,7 +720,7 @@
         <v>44455</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -726,7 +732,7 @@
         <v>44460</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>29</v>
@@ -786,7 +792,7 @@
         <v>44476</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>31</v>
@@ -798,7 +804,7 @@
         <v>44481</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -816,7 +822,7 @@
         <v>44488</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -828,10 +834,10 @@
         <v>44490</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -840,7 +846,7 @@
         <v>44495</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -849,7 +855,7 @@
         <v>44497</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -858,7 +864,7 @@
         <v>44502</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -867,10 +873,10 @@
         <v>44504</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -879,10 +885,10 @@
         <v>44509</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -894,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -903,7 +909,7 @@
         <v>44516</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -912,22 +918,22 @@
         <v>44518</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <f t="shared" ref="A33" si="19">A31+7</f>
         <v>44523</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -946,7 +952,7 @@
         <v>44530</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -955,11 +961,11 @@
         <f t="shared" si="20"/>
         <v>44532</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>42</v>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -967,6 +973,9 @@
         <f t="shared" si="21"/>
         <v>44537</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -982,7 +991,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -993,12 +1002,12 @@
         <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
